--- a/data/review_sphero_edu.xlsx
+++ b/data/review_sphero_edu.xlsx
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>4</v>
       </c>
       <c r="F290" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>1</v>
       </c>
       <c r="F318" t="n">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>5</v>
       </c>
       <c r="F377" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>

--- a/data/review_sphero_edu.xlsx
+++ b/data/review_sphero_edu.xlsx
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" s="2" t="n">
@@ -4321,7 +4321,7 @@
         <v>5</v>
       </c>
       <c r="F87" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" s="2" t="n">
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" s="2" t="n">
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" s="2" t="n">
@@ -5324,7 +5324,7 @@
         <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>5</v>
       </c>
       <c r="F156" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>5</v>
       </c>
       <c r="F165" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" s="2" t="n">
@@ -11226,7 +11226,7 @@
         <v>5</v>
       </c>
       <c r="F242" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>4</v>
       </c>
       <c r="F290" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="F311" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>1</v>
       </c>
       <c r="F318" t="n">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>5</v>
       </c>
       <c r="F378" t="n">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>1</v>
       </c>
       <c r="F978" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G978" t="inlineStr">
         <is>
